--- a/documnets/機能一覧_ヨッシーアイランド.xlsx
+++ b/documnets/機能一覧_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD582D-9459-40DE-8E8C-71C63EBECE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6114C82-0F21-4165-8EF0-580AF8558956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="11490" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1620" windowWidth="11490" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>コメントを記入できる。</t>
   </si>
   <si>
-    <t>その日の健康状態を一覧できる。健康状態の統計を表示する。受講者のコメントを確認できる。管理者のみ利用可能。</t>
-  </si>
-  <si>
     <t>すべての受講者の健康状態を表示</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,6 +281,14 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その日の健康状態の一覧を確認でる。また、健康状態の統計を表示する。
+受講者のコメントを確認できる。管理者のみ利用可能。</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,29 +452,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,8 +838,8 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -844,22 +849,22 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
@@ -870,22 +875,22 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -899,18 +904,18 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
@@ -919,18 +924,18 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
@@ -939,18 +944,18 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
@@ -959,18 +964,18 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="H11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
@@ -979,18 +984,18 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
@@ -999,18 +1004,18 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
@@ -1019,18 +1024,18 @@
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
@@ -1039,18 +1044,18 @@
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1059,18 +1064,18 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
@@ -1079,18 +1084,18 @@
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
@@ -1099,18 +1104,18 @@
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
@@ -1119,51 +1124,51 @@
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="8" t="s">
-        <v>44</v>
+      <c r="F20" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -1355,5 +1360,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documnets/機能一覧_ヨッシーアイランド.xlsx
+++ b/documnets/機能一覧_ヨッシーアイランド.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6114C82-0F21-4165-8EF0-580AF8558956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55849DA0-9A92-47A4-A669-929B141FFF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1620" windowWidth="11490" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>メニューバー</t>
-  </si>
-  <si>
-    <t>メニューバーを表示し、診断と診断結果、コメントに移動することが可能。</t>
   </si>
   <si>
     <t>診断</t>
@@ -237,18 +234,12 @@
     <t>現在の結果を表示</t>
   </si>
   <si>
-    <t>過去の結果を表示</t>
-  </si>
-  <si>
     <t>カレンダーのアイコンの表示</t>
   </si>
   <si>
     <t>入力したデータをもとに、どのような健康状態なのかを表示する。</t>
   </si>
   <si>
-    <t>過去に入力したデータをもとに、どのような健康状態だったのかを表示する。</t>
-  </si>
-  <si>
     <t>診断結果によって、アイコンをカレンダーに表示させる。</t>
   </si>
   <si>
@@ -271,8 +262,7 @@
     <t>コメントを記入できる。</t>
   </si>
   <si>
-    <t>すべての受講者の健康状態を表示</t>
-    <phoneticPr fontId="1"/>
+    <t>その日の健康状態を一覧できる。健康状態の統計を表示する。受講者のコメントを確認できる。管理者のみ利用可能。</t>
   </si>
   <si>
     <t>カレンダーの表示。
@@ -284,10 +274,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その日の健康状態の一覧を確認でる。また、健康状態の統計を表示する。
-受講者のコメントを確認できる。管理者のみ利用可能。</t>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
+    <t>過去の結果を表示（管理者）</t>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に入力したデータをもとに、受講者がどのような健康状態だったのかを表示する。</t>
+    <rPh sb="15" eb="18">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューバーを表示し、診断と診断結果に移動することが可能。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての受講者の健康状態を表示（管理者）</t>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -816,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,11 +980,11 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -993,7 +1000,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -1005,15 +1012,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -1025,15 +1032,15 @@
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -1045,15 +1052,15 @@
         <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -1065,15 +1072,15 @@
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -1085,15 +1092,15 @@
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -1105,15 +1112,15 @@
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -1125,19 +1132,19 @@
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1145,17 +1152,17 @@
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -1360,6 +1367,5 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documnets/機能一覧_ヨッシーアイランド.xlsx
+++ b/documnets/機能一覧_ヨッシーアイランド.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55849DA0-9A92-47A4-A669-929B141FFF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B72A5-340F-43A2-BC35-2CA9F360608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,6 +179,81 @@
   </si>
   <si>
     <t>精神的に関する診断</t>
+  </si>
+  <si>
+    <t>診断結果</t>
+  </si>
+  <si>
+    <t>診断結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の結果を表示</t>
+  </si>
+  <si>
+    <t>カレンダーのアイコンの表示</t>
+  </si>
+  <si>
+    <t>入力したデータをもとに、どのような健康状態なのかを表示する。</t>
+  </si>
+  <si>
+    <t>診断結果によって、アイコンをカレンダーに表示させる。</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者の入力</t>
+  </si>
+  <si>
+    <t>管理者の入力</t>
+  </si>
+  <si>
+    <t>閲覧機能</t>
+  </si>
+  <si>
+    <t>コメントを記入できる。</t>
+  </si>
+  <si>
+    <t>その日の健康状態を一覧できる。健康状態の統計を表示する。受講者のコメントを確認できる。管理者のみ利用可能。</t>
+  </si>
+  <si>
+    <t>カレンダーの表示。
+カレンダーの日にちにカーソルを置くと、簡単な診断結果を表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の結果を表示（管理者）</t>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に入力したデータをもとに、受講者がどのような健康状態だったのかを表示する。</t>
+    <rPh sb="15" eb="18">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューバーを表示し、診断と診断結果に移動することが可能。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての受講者の健康状態を表示（管理者）</t>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -220,82 +295,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>段階でチェックする</t>
+      <t>段階でチェックする。</t>
     </r>
-  </si>
-  <si>
-    <t>診断結果</t>
-  </si>
-  <si>
-    <t>診断結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在の結果を表示</t>
-  </si>
-  <si>
-    <t>カレンダーのアイコンの表示</t>
-  </si>
-  <si>
-    <t>入力したデータをもとに、どのような健康状態なのかを表示する。</t>
-  </si>
-  <si>
-    <t>診断結果によって、アイコンをカレンダーに表示させる。</t>
-  </si>
-  <si>
-    <t>コメント</t>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者の入力</t>
-  </si>
-  <si>
-    <t>管理者の入力</t>
-  </si>
-  <si>
-    <t>閲覧機能</t>
-  </si>
-  <si>
-    <t>コメントを記入できる。</t>
-  </si>
-  <si>
-    <t>その日の健康状態を一覧できる。健康状態の統計を表示する。受講者のコメントを確認できる。管理者のみ利用可能。</t>
-  </si>
-  <si>
-    <t>カレンダーの表示。
-カレンダーの日にちにカーソルを置くと、簡単な診断結果を表示する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去の結果を表示（管理者）</t>
-    <rPh sb="9" eb="12">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去に入力したデータをもとに、受講者がどのような健康状態だったのかを表示する。</t>
-    <rPh sb="15" eb="18">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューバーを表示し、診断と診断結果に移動することが可能。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべての受講者の健康状態を表示（管理者）</t>
-    <rPh sb="16" eb="19">
-      <t>カンリシャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -823,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,7 +981,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -1000,7 +1001,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="13" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -1040,7 +1041,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="13" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -1052,15 +1053,15 @@
         <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -1072,15 +1073,15 @@
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -1092,15 +1093,15 @@
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -1112,15 +1113,15 @@
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -1132,15 +1133,15 @@
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -1152,17 +1153,17 @@
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -1367,5 +1368,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documnets/機能一覧_ヨッシーアイランド.xlsx
+++ b/documnets/機能一覧_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B72A5-340F-43A2-BC35-2CA9F360608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB8559-AEEC-42C0-96E6-F52F725E0910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1875" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
